--- a/document/吴迪-IT界小菜鸟-理财精灵开发进度表10.23.xlsx
+++ b/document/吴迪-IT界小菜鸟-理财精灵开发进度表10.23.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,7 +303,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡佳军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吴迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -900,8 +916,8 @@
       <c r="G13" s="4">
         <v>43030</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>32</v>
+      <c r="H13" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1103,31 +1119,31 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43032</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="4">
-        <v>43032</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G32" s="4">
         <v>43032</v>
@@ -1138,28 +1154,39 @@
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="4">
         <v>43032</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43032</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H34" s="5"/>
-    </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1173,6 +1200,9 @@
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/document/吴迪-IT界小菜鸟-理财精灵开发进度表10.23.xlsx
+++ b/document/吴迪-IT界小菜鸟-理财精灵开发进度表10.23.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,155 +171,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡佳军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯海涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈凯文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡佳军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯海涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>产品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯海涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用户详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员产品审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王金龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吴迪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈凯文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蔡佳军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈凯文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯海涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈凯文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡佳军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯海涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯海涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员用户详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员产品审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡佳军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
+    <t>杨林波-源代码-理财精灵需求分析说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,12 +363,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -398,6 +408,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,20 +751,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,8 +776,10 @@
       <c r="E1" s="9"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -772,12 +793,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -788,10 +809,10 @@
         <v>43030</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -802,10 +823,10 @@
         <v>43030</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -816,10 +837,10 @@
         <v>43030</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -827,381 +848,418 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4">
         <v>43030</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="4">
         <v>43030</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4">
         <v>43030</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4">
         <v>43030</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4">
         <v>43030</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4">
         <v>43030</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="11">
+        <v>43032</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="4">
-        <v>43032</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="G17" s="11">
+        <v>43031</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="4">
-        <v>43031</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4">
         <v>43030</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4">
         <v>43030</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="4">
         <v>43030</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G26" s="4">
         <v>43032</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G27" s="4">
         <v>43032</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="4">
         <v>43032</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="11">
         <v>43032</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="H29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="11">
         <v>43032</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="11">
         <v>43032</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="1" t="s">
+      <c r="H32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="11">
         <v>43032</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="1" t="s">
+      <c r="H33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="11">
         <v>43032</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="5"/>
     </row>
   </sheetData>
@@ -1220,7 +1278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1233,7 +1291,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
